--- a/data/trans_camb/P18_4_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P18_4_R-Urba-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-18,33</t>
+          <t>-19,04</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-18,77</t>
+          <t>-14,03</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-17,51</t>
+          <t>-16,87</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-18,09</t>
+          <t>-20,03</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-14,56</t>
+          <t>-15,44</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-16,29</t>
+          <t>-11,21</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-18,21</t>
+          <t>-12,54</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-16,49</t>
+          <t>-13,26</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-16,89</t>
+          <t>-17,08</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-12,5</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-14,6</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-16,47</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-26,59; -9,73</t>
+          <t>-30,62; -10,91</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-27,03; -9,46</t>
+          <t>-25,57; 2,53</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-25,96; -11,3</t>
+          <t>-30,18; -8,28</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-23,81; -12,01</t>
+          <t>-32,77; -11,92</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-20,42; -8,44</t>
+          <t>-22,66; -8,1</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-22,34; -10,37</t>
+          <t>-18,39; -3,55</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-23,81; -13,78</t>
+          <t>-19,84; -5,39</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-22,5; -11,52</t>
+          <t>-20,85; -4,26</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-22,47; -12,6</t>
+          <t>-23,91; -11,54</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-19,22; -3,93</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-21,54; -8,66</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-22,77; -10,51</t>
         </is>
       </c>
     </row>
@@ -738,47 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-65,92%</t>
+          <t>-70,11%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-67,5%</t>
+          <t>-51,66%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-62,96%</t>
+          <t>-62,1%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-63,54%</t>
+          <t>-73,75%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-51,13%</t>
+          <t>-59,76%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-57,19%</t>
+          <t>-43,39%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-64,63%</t>
+          <t>-48,53%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-58,52%</t>
+          <t>-51,34%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-59,93%</t>
+          <t>-64,61%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-47,29%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-55,22%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-62,28%</t>
         </is>
       </c>
     </row>
@@ -791,47 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-80,35; -36,42</t>
+          <t>-85,01; -46,39</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-81,87; -26,22</t>
+          <t>-80,22; 22,6</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-77,6; -45,37</t>
+          <t>-81,16; -31,06</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-74,99; -47,58</t>
+          <t>-88,29; -52,24</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-64,6; -32,93</t>
+          <t>-75,23; -36,3</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-71,69; -40,8</t>
+          <t>-62,86; -18,29</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-74,68; -52,25</t>
+          <t>-66,52; -23,84</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-70,51; -43,57</t>
+          <t>-70,39; -17,01</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-70,31; -48,54</t>
+          <t>-76,49; -49,29</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-64,27; -13,5</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-69,27; -36,41</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-75,2; -44,19</t>
         </is>
       </c>
     </row>
@@ -848,47 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-16,47</t>
+          <t>-16,3</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-13,28</t>
+          <t>-12,63</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-14,84</t>
+          <t>-15,02</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-15,8</t>
+          <t>-16,77</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-10,68</t>
+          <t>-14,46</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-11,27</t>
+          <t>-8,76</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-16,14</t>
+          <t>-14,12</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-12,04</t>
+          <t>-17,85</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-13,11</t>
+          <t>-15,29</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-10,67</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-14,61</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-17,37</t>
         </is>
       </c>
     </row>
@@ -901,47 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-23,3; -9,94</t>
+          <t>-25,46; -8,39</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-20,62; -5,31</t>
+          <t>-21,97; -3,74</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-21,68; -7,06</t>
+          <t>-24,41; -7,44</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-23,7; -8,94</t>
+          <t>-25,13; -8,53</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-18,17; -3,71</t>
+          <t>-22,18; -7,34</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-19,03; -1,4</t>
+          <t>-17,7; 0,01</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-21,33; -10,86</t>
+          <t>-22,94; -6,54</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-17,72; -6,54</t>
+          <t>-25,55; -11,07</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-18,87; -6,51</t>
+          <t>-21,12; -9,18</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-16,93; -3,46</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-20,97; -8,9</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-23,52; -12,03</t>
         </is>
       </c>
     </row>
@@ -954,47 +1068,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-71,06%</t>
+          <t>-71,82%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-57,3%</t>
+          <t>-55,66%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-64,05%</t>
+          <t>-66,19%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-61,74%</t>
+          <t>-73,86%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-41,73%</t>
+          <t>-58,88%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-44,05%</t>
+          <t>-35,65%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-65,93%</t>
+          <t>-57,49%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-49,18%</t>
+          <t>-72,67%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-53,55%</t>
+          <t>-64,53%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-45,04%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-61,65%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-73,29%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1136,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-84,81; -47,29</t>
+          <t>-87,59; -43,14</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-75,44; -21,52</t>
+          <t>-78,45; -15,96</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-81,25; -30,03</t>
+          <t>-84,27; -34,47</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-77,1; -38,71</t>
+          <t>-88,7; -42,11</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-61,15; -16,18</t>
+          <t>-76,24; -28,48</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-64,76; -3,04</t>
+          <t>-60,47; 2,0</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-77,63; -49,44</t>
+          <t>-77,09; -29,79</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-63,04; -27,88</t>
+          <t>-86,16; -52,33</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-68,4; -27,16</t>
+          <t>-77,62; -44,66</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-62,74; -17,03</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-74,5; -41,46</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-84,53; -57,15</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1208,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-18,94</t>
+          <t>-19,2</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-12,28</t>
+          <t>-14,61</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-15,16</t>
+          <t>-5,84</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-28,0</t>
+          <t>-19,79</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-22,73</t>
+          <t>-29,69</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-26,92</t>
+          <t>-23,09</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-23,19</t>
+          <t>-31,67</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-17,2</t>
+          <t>-27,92</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-20,71</t>
+          <t>-24,4</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-18,79</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-18,72</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-23,84</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1276,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-34,65; -5,05</t>
+          <t>-41,88; 2,03</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-27,21; 3,1</t>
+          <t>-39,32; 9,77</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-30,84; -1,18</t>
+          <t>-33,52; 19,49</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-41,62; -13,86</t>
+          <t>-44,66; 0,61</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-36,69; -6,52</t>
+          <t>-49,39; -13,3</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-40,93; -11,04</t>
+          <t>-43,62; -4,36</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-33,16; -13,08</t>
+          <t>-49,9; -14,02</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-27,52; -5,46</t>
+          <t>-48,31; -10,05</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-31,19; -10,47</t>
+          <t>-39,18; -10,41</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-34,21; -1,98</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-32,92; -2,53</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-39,49; -9,59</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1344,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-73,26%</t>
+          <t>-75,71%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-47,51%</t>
+          <t>-57,64%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-58,62%</t>
+          <t>-23,02%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-72,98%</t>
+          <t>-78,03%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-59,25%</t>
+          <t>-80,44%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-70,15%</t>
+          <t>-62,55%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-73,0%</t>
+          <t>-85,81%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-54,14%</t>
+          <t>-75,63%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-65,19%</t>
+          <t>-78,48%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>-60,43%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-60,22%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-76,69%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1412,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-93,37; -24,0</t>
+          <t>-100,0; 34,25</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-76,86; 29,47</t>
+          <t>-91,46; 86,17</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-83,72; -3,31</t>
+          <t>-79,18; 158,01</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-88,53; -38,38</t>
+          <t>-100,0; 26,85</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-79,99; -20,31</t>
+          <t>-95,59; -43,28</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-88,29; -36,39</t>
+          <t>-87,64; -5,53</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-87,44; -48,55</t>
+          <t>-100,0; -49,23</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-74,36; -22,71</t>
+          <t>-100,0; -23,26</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-82,07; -38,52</t>
+          <t>-93,96; -41,63</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-82,25; -5,25</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-81,23; -11,12</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-92,83; -38,24</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1484,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-17,69</t>
+          <t>-17,97</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-15,81</t>
+          <t>-13,56</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-16,19</t>
+          <t>-14,97</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-18,13</t>
+          <t>-18,68</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-13,79</t>
+          <t>-16,35</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-15,32</t>
+          <t>-11,3</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-17,94</t>
+          <t>-15,0</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-14,79</t>
+          <t>-16,38</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-15,81</t>
+          <t>-17,09</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>-12,39</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-15,02</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>-17,53</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1552,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-23,0; -12,95</t>
+          <t>-25,44; -11,89</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-21,12; -9,77</t>
+          <t>-21,26; -3,68</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-21,07; -11,15</t>
+          <t>-23,03; -8,53</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-22,45; -13,81</t>
+          <t>-26,12; -12,59</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-18,2; -9,55</t>
+          <t>-21,61; -11,01</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-19,84; -10,28</t>
+          <t>-16,85; -5,96</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-21,39; -14,53</t>
+          <t>-20,48; -10,05</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-18,1; -11,35</t>
+          <t>-21,54; -10,66</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-19,05; -12,47</t>
+          <t>-21,37; -12,95</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-16,8; -7,3</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-19,31; -10,84</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-21,72; -13,59</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1620,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-68,69%</t>
+          <t>-71,4%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-61,41%</t>
+          <t>-53,89%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-62,89%</t>
+          <t>-59,5%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-64,12%</t>
+          <t>-74,23%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-48,78%</t>
+          <t>-62,13%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-54,17%</t>
+          <t>-42,94%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-66,19%</t>
+          <t>-56,98%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-54,58%</t>
+          <t>-62,24%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-58,32%</t>
+          <t>-66,3%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>-48,03%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>-58,23%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>-67,97%</t>
         </is>
       </c>
     </row>
@@ -1439,59 +1688,81 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-79,01; -52,67</t>
+          <t>-82,32; -54,03</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-74,19; -40,24</t>
+          <t>-72,4; -15,63</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-73,35; -47,87</t>
+          <t>-74,35; -39,45</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-73,05; -52,56</t>
+          <t>-84,81; -57,49</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-58,98; -37,1</t>
+          <t>-72,85; -46,33</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-65,29; -39,27</t>
+          <t>-57,4; -25,59</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-73,31; -56,1</t>
+          <t>-70,28; -41,68</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-62,37; -43,44</t>
+          <t>-74,28; -45,2</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-66,13; -48,94</t>
+          <t>-74,31; -55,95</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-59,53; -30,36</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-67,54; -45,07</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-76,89; -57,67</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
